--- a/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
+++ b/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOEL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\CodeMentorSolutions\Desarrollo\SGDC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D25AD9-EE85-472A-8F5E-E0D78978E364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="7296"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma #1" sheetId="1" r:id="rId1"/>
@@ -499,9 +500,6 @@
     <t>SGDC_PB1.PDF</t>
   </si>
   <si>
-    <t>SGDC_SB1.DOCX</t>
-  </si>
-  <si>
     <t>Seleccionar el Sprint Backlog 2</t>
   </si>
   <si>
@@ -521,12 +519,15 @@
   </si>
   <si>
     <t>SGDC_PC.DOCX</t>
+  </si>
+  <si>
+    <t>SGDC_SB1.XSLX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -1235,7 +1236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="97">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1349,24 +1350,14 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1379,7 +1370,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,14 +1388,8 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1469,7 +1454,7 @@
     <xf numFmtId="14" fontId="19" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1488,6 +1473,22 @@
     <xf numFmtId="14" fontId="19" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,46 +1703,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.21875" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="45.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -1828,37 +1829,37 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="31.2">
+    <row r="9" spans="1:11" ht="47.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="53" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="53" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="60"/>
-    </row>
-    <row r="10" spans="1:11" ht="39.6">
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:11" ht="38.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="56" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -1867,24 +1868,24 @@
       <c r="E10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="57">
         <v>45020</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="57">
         <v>45020</v>
       </c>
       <c r="H10" s="21">
         <v>1</v>
       </c>
-      <c r="I10" s="64"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="39.6">
+    <row r="11" spans="1:11" ht="38.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="56" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -1893,55 +1894,55 @@
       <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="57">
         <v>45020</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="57">
         <v>45020</v>
       </c>
       <c r="H11" s="21">
         <v>1</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="58" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="39.6">
+    <row r="12" spans="1:11" ht="38.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="59" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="57">
         <v>45020</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="57">
         <v>45020</v>
       </c>
       <c r="H12" s="21">
         <v>1</v>
       </c>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="89" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="39.6">
+    <row r="13" spans="1:11" ht="38.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="60" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -1950,21 +1951,21 @@
       <c r="E13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="57">
         <v>45020</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="57">
         <v>45020</v>
       </c>
       <c r="H13" s="21">
         <v>1</v>
       </c>
-      <c r="I13" s="68"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="12"/>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="55" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -1976,24 +1977,24 @@
       <c r="E14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="57">
         <v>45027</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="57">
         <v>45038</v>
       </c>
       <c r="H14" s="21">
         <v>1</v>
       </c>
-      <c r="I14" s="68"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1">
       <c r="A15" s="12"/>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="61" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -2002,25 +2003,25 @@
       <c r="E15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="57">
         <v>45031</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="57">
         <v>45036</v>
       </c>
       <c r="H15" s="21">
         <v>1</v>
       </c>
-      <c r="I15" s="68"/>
+      <c r="I15" s="90"/>
       <c r="J15" s="22"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="61" t="s">
         <v>147</v>
       </c>
       <c r="D16" s="20" t="s">
@@ -2029,52 +2030,52 @@
       <c r="E16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="57">
         <v>45031</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="57">
         <v>45036</v>
       </c>
       <c r="H16" s="21">
         <v>1</v>
       </c>
-      <c r="I16" s="68"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="22"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="61" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="57">
         <v>45032</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="57">
         <v>45036</v>
       </c>
       <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="I17" s="68"/>
+      <c r="I17" s="90"/>
       <c r="J17" s="22"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -2083,25 +2084,25 @@
       <c r="E18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="57">
         <v>45033</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="57">
         <v>45039</v>
       </c>
       <c r="H18" s="21">
         <v>1</v>
       </c>
-      <c r="I18" s="68"/>
+      <c r="I18" s="90"/>
       <c r="J18" s="22"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="12"/>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="61" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -2110,16 +2111,16 @@
       <c r="E19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="57">
         <v>45033</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="57">
         <v>45039</v>
       </c>
       <c r="H19" s="21">
         <v>1</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="89" t="s">
         <v>41</v>
       </c>
       <c r="J19" s="22"/>
@@ -2127,10 +2128,10 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="61" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="20" t="s">
@@ -2139,25 +2140,25 @@
       <c r="E20" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="57">
         <v>45033</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="57">
         <v>45039</v>
       </c>
       <c r="H20" s="21">
         <v>1</v>
       </c>
-      <c r="I20" s="68"/>
+      <c r="I20" s="90"/>
       <c r="J20" s="22"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="61" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -2166,25 +2167,25 @@
       <c r="E21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="57">
         <v>45033</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="57">
         <v>45039</v>
       </c>
       <c r="H21" s="21">
         <v>1</v>
       </c>
-      <c r="I21" s="68"/>
+      <c r="I21" s="90"/>
       <c r="J21" s="22"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="61" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -2193,25 +2194,25 @@
       <c r="E22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="57">
         <v>45033</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="57">
         <v>45039</v>
       </c>
       <c r="H22" s="21">
         <v>1</v>
       </c>
-      <c r="I22" s="68"/>
+      <c r="I22" s="90"/>
       <c r="J22" s="22"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="61" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="20" t="s">
@@ -2220,25 +2221,25 @@
       <c r="E23" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="57">
         <v>45033</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="57">
         <v>45039</v>
       </c>
       <c r="H23" s="21">
         <v>1</v>
       </c>
-      <c r="I23" s="68"/>
+      <c r="I23" s="90"/>
       <c r="J23" s="22"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="61" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -2247,25 +2248,25 @@
       <c r="E24" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="57">
         <v>45033</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="57">
         <v>45039</v>
       </c>
       <c r="H24" s="21">
         <v>1</v>
       </c>
-      <c r="I24" s="68"/>
+      <c r="I24" s="90"/>
       <c r="J24" s="22"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="61" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -2274,25 +2275,25 @@
       <c r="E25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="57">
         <v>45033</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="57">
         <v>45039</v>
       </c>
       <c r="H25" s="21">
         <v>1</v>
       </c>
-      <c r="I25" s="68"/>
+      <c r="I25" s="90"/>
       <c r="J25" s="22"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="61" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -2301,25 +2302,25 @@
       <c r="E26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="57">
         <v>45033</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="57">
         <v>45039</v>
       </c>
       <c r="H26" s="21">
         <v>1</v>
       </c>
-      <c r="I26" s="68"/>
+      <c r="I26" s="90"/>
       <c r="J26" s="22"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="61" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -2328,52 +2329,52 @@
       <c r="E27" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="57">
         <v>45033</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="57">
         <v>45042</v>
       </c>
       <c r="H27" s="21">
         <v>1</v>
       </c>
-      <c r="I27" s="68"/>
+      <c r="I27" s="90"/>
       <c r="J27" s="22"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="57">
         <v>45033</v>
       </c>
-      <c r="G28" s="63">
+      <c r="G28" s="57">
         <v>45042</v>
       </c>
       <c r="H28" s="21">
         <v>1</v>
       </c>
-      <c r="I28" s="68"/>
+      <c r="I28" s="90"/>
       <c r="J28" s="22"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="64" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -2382,25 +2383,25 @@
       <c r="E29" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="57">
         <v>45033</v>
       </c>
-      <c r="G29" s="63">
+      <c r="G29" s="57">
         <v>45042</v>
       </c>
       <c r="H29" s="21">
         <v>0</v>
       </c>
-      <c r="I29" s="68"/>
+      <c r="I29" s="90"/>
       <c r="J29" s="22"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="61" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -2409,28 +2410,28 @@
       <c r="E30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="57">
         <v>45033</v>
       </c>
-      <c r="G30" s="63">
+      <c r="G30" s="57">
         <v>45039</v>
       </c>
       <c r="H30" s="21">
         <v>1</v>
       </c>
-      <c r="I30" s="64" t="s">
+      <c r="I30" s="58" t="s">
         <v>72</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="13.2">
+    <row r="31" spans="1:11" ht="12.75">
       <c r="A31" s="12"/>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="69" t="s">
-        <v>158</v>
+      <c r="C31" s="61" t="s">
+        <v>157</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>17</v>
@@ -2438,25 +2439,25 @@
       <c r="E31" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="57">
         <v>45039</v>
       </c>
-      <c r="G31" s="63">
+      <c r="G31" s="57">
         <v>45046</v>
       </c>
       <c r="H31" s="21">
         <v>0.48</v>
       </c>
-      <c r="I31" s="64"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="22"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="13.2">
+    <row r="32" spans="1:11" ht="12.75">
       <c r="A32" s="12"/>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="61" t="s">
         <v>126</v>
       </c>
       <c r="D32" s="20" t="s">
@@ -2465,25 +2466,25 @@
       <c r="E32" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="57">
         <v>45040</v>
       </c>
-      <c r="G32" s="63">
+      <c r="G32" s="57">
         <v>45047</v>
       </c>
       <c r="H32" s="21">
         <v>0.48</v>
       </c>
-      <c r="I32" s="64"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="22"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="39.6">
+    <row r="33" spans="1:11" ht="38.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="61" t="s">
         <v>130</v>
       </c>
       <c r="D33" s="20" t="s">
@@ -2492,25 +2493,25 @@
       <c r="E33" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="57">
         <v>45048</v>
       </c>
-      <c r="G33" s="63">
+      <c r="G33" s="57">
         <v>45048</v>
       </c>
       <c r="H33" s="21">
         <v>1</v>
       </c>
-      <c r="I33" s="66"/>
+      <c r="I33" s="89"/>
       <c r="J33" s="22"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="39.6">
+    <row r="34" spans="1:11" ht="38.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="61" t="s">
         <v>129</v>
       </c>
       <c r="D34" s="20" t="s">
@@ -2519,152 +2520,152 @@
       <c r="E34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="57">
         <v>45049</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="57">
         <v>45049</v>
       </c>
       <c r="H34" s="21">
         <v>1</v>
       </c>
-      <c r="I34" s="68"/>
+      <c r="I34" s="90"/>
       <c r="J34" s="22"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="26.4">
+    <row r="35" spans="1:11" ht="25.5">
       <c r="A35" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="75"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
-      <c r="F35" s="96">
+      <c r="F35" s="88">
         <v>45020</v>
       </c>
-      <c r="G35" s="96">
+      <c r="G35" s="88">
         <v>45050</v>
       </c>
       <c r="H35" s="25"/>
-      <c r="I35" s="68"/>
+      <c r="I35" s="90"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="12"/>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="D36" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D36" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="56" t="s">
+      <c r="E36" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="78">
+      <c r="F36" s="70">
         <v>45051</v>
       </c>
-      <c r="G36" s="78">
+      <c r="G36" s="70">
         <v>45052</v>
       </c>
       <c r="H36" s="21">
         <v>1</v>
       </c>
-      <c r="I36" s="66"/>
+      <c r="I36" s="89"/>
       <c r="J36" s="22"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="12"/>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="61" t="s">
         <v>61</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="77" t="s">
+      <c r="E37" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="78">
+      <c r="F37" s="70">
         <v>45052</v>
       </c>
-      <c r="G37" s="78">
+      <c r="G37" s="70">
         <v>45070</v>
       </c>
       <c r="H37" s="26">
         <v>0</v>
       </c>
-      <c r="I37" s="68"/>
+      <c r="I37" s="90"/>
       <c r="J37" s="22"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="12"/>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="64" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="78">
+      <c r="F38" s="70">
         <v>45052</v>
       </c>
-      <c r="G38" s="78">
+      <c r="G38" s="70">
         <v>45077</v>
       </c>
       <c r="H38" s="26">
         <v>0</v>
       </c>
-      <c r="I38" s="68"/>
+      <c r="I38" s="90"/>
       <c r="J38" s="22"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="26.4">
+    <row r="39" spans="1:11" ht="25.5">
       <c r="A39" s="12"/>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="69" t="s">
-        <v>158</v>
+      <c r="C39" s="61" t="s">
+        <v>157</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="56" t="s">
+      <c r="E39" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="78">
+      <c r="F39" s="70">
         <v>45053</v>
       </c>
-      <c r="G39" s="78">
+      <c r="G39" s="70">
         <v>45077</v>
       </c>
-      <c r="H39" s="57">
+      <c r="H39" s="51">
         <v>0</v>
       </c>
-      <c r="I39" s="68"/>
+      <c r="I39" s="90"/>
       <c r="J39" s="22"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="12"/>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="64" t="s">
         <v>114</v>
       </c>
       <c r="D40" s="20" t="s">
@@ -2673,25 +2674,25 @@
       <c r="E40" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="76">
+      <c r="F40" s="68">
         <v>45054</v>
       </c>
-      <c r="G40" s="76">
+      <c r="G40" s="68">
         <v>45077</v>
       </c>
       <c r="H40" s="27">
         <v>0</v>
       </c>
-      <c r="I40" s="68"/>
+      <c r="I40" s="90"/>
       <c r="J40" s="22"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="13.8">
+    <row r="41" spans="1:11" ht="14.25">
       <c r="A41" s="12"/>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="64" t="s">
         <v>123</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -2700,25 +2701,25 @@
       <c r="E41" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="68">
         <v>45054</v>
       </c>
-      <c r="G41" s="76">
+      <c r="G41" s="68">
         <v>45077</v>
       </c>
       <c r="H41" s="28">
         <v>0</v>
       </c>
-      <c r="I41" s="68"/>
+      <c r="I41" s="90"/>
       <c r="J41" s="22"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="13.8">
+    <row r="42" spans="1:11" ht="14.25">
       <c r="A42" s="12"/>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="61" t="s">
         <v>120</v>
       </c>
       <c r="D42" s="20" t="s">
@@ -2727,25 +2728,25 @@
       <c r="E42" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="76">
+      <c r="F42" s="68">
         <v>45054</v>
       </c>
-      <c r="G42" s="76">
+      <c r="G42" s="68">
         <v>45077</v>
       </c>
       <c r="H42" s="28">
         <v>0</v>
       </c>
-      <c r="I42" s="64"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="22"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="39.6">
+    <row r="43" spans="1:11" ht="38.25">
       <c r="A43" s="12"/>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="61" t="s">
         <v>132</v>
       </c>
       <c r="D43" s="20" t="s">
@@ -2754,27 +2755,27 @@
       <c r="E43" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="76">
+      <c r="F43" s="68">
         <v>45078</v>
       </c>
-      <c r="G43" s="76">
+      <c r="G43" s="68">
         <v>45078</v>
       </c>
       <c r="H43" s="21">
         <v>0</v>
       </c>
-      <c r="I43" s="66" t="s">
+      <c r="I43" s="89" t="s">
         <v>82</v>
       </c>
       <c r="J43" s="22"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="39.6">
+    <row r="44" spans="1:11" ht="38.25">
       <c r="A44" s="12"/>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="61" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="20" t="s">
@@ -2783,72 +2784,72 @@
       <c r="E44" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="76">
+      <c r="F44" s="68">
         <v>45078</v>
       </c>
-      <c r="G44" s="76">
+      <c r="G44" s="68">
         <v>45078</v>
       </c>
       <c r="H44" s="21">
         <v>0</v>
       </c>
-      <c r="I44" s="68"/>
+      <c r="I44" s="90"/>
       <c r="J44" s="22"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="26.4">
+    <row r="45" spans="1:11" ht="25.5">
       <c r="A45" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="94"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="29"/>
-      <c r="F45" s="82">
+      <c r="F45" s="74">
         <v>45050</v>
       </c>
-      <c r="G45" s="82">
+      <c r="G45" s="74">
         <v>45079</v>
       </c>
       <c r="H45" s="30"/>
-      <c r="I45" s="68"/>
+      <c r="I45" s="90"/>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1">
       <c r="A46" s="12"/>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="92" t="s">
+      <c r="C46" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="93" t="s">
+      <c r="E46" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="76">
+      <c r="F46" s="68">
         <v>45080</v>
       </c>
-      <c r="G46" s="76">
+      <c r="G46" s="68">
         <v>45081</v>
       </c>
       <c r="H46" s="21">
         <v>0</v>
       </c>
-      <c r="I46" s="64"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="22"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="26.4">
+    <row r="47" spans="1:11" ht="25.5">
       <c r="A47" s="12"/>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="69" t="s">
-        <v>158</v>
+      <c r="C47" s="61" t="s">
+        <v>157</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>17</v>
@@ -2856,25 +2857,25 @@
       <c r="E47" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="76">
+      <c r="F47" s="68">
         <v>45082</v>
       </c>
-      <c r="G47" s="76">
+      <c r="G47" s="68">
         <v>45103</v>
       </c>
       <c r="H47" s="21">
         <v>0</v>
       </c>
-      <c r="I47" s="64"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="22"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="13.8">
+    <row r="48" spans="1:11" ht="14.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="61" t="s">
         <v>119</v>
       </c>
       <c r="D48" s="20" t="s">
@@ -2883,52 +2884,52 @@
       <c r="E48" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="76">
+      <c r="F48" s="68">
         <v>45083</v>
       </c>
-      <c r="G48" s="76">
+      <c r="G48" s="68">
         <v>45104</v>
       </c>
       <c r="H48" s="21">
         <v>0</v>
       </c>
-      <c r="I48" s="64"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="22"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" ht="13.8">
+    <row r="49" spans="1:11" ht="14.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="62" t="s">
         <v>87</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="76">
+      <c r="F49" s="68">
         <v>45084</v>
       </c>
-      <c r="G49" s="76">
+      <c r="G49" s="68">
         <v>45104</v>
       </c>
       <c r="H49" s="21">
         <v>0</v>
       </c>
-      <c r="I49" s="64"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="22"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="39.6">
+    <row r="50" spans="1:11" ht="38.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="69" t="s">
+      <c r="C50" s="61" t="s">
         <v>142</v>
       </c>
       <c r="D50" s="20" t="s">
@@ -2937,25 +2938,25 @@
       <c r="E50" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="76">
+      <c r="F50" s="68">
         <v>45105</v>
       </c>
-      <c r="G50" s="76">
+      <c r="G50" s="68">
         <v>45105</v>
       </c>
       <c r="H50" s="21">
         <v>0</v>
       </c>
-      <c r="I50" s="64"/>
+      <c r="I50" s="58"/>
       <c r="J50" s="22"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="39.6">
+    <row r="51" spans="1:11" ht="38.25">
       <c r="A51" s="12"/>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="69" t="s">
+      <c r="C51" s="61" t="s">
         <v>143</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -2964,66 +2965,66 @@
       <c r="E51" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="76">
+      <c r="F51" s="68">
         <v>45105</v>
       </c>
-      <c r="G51" s="76">
+      <c r="G51" s="68">
         <v>45105</v>
       </c>
       <c r="H51" s="21">
         <v>0</v>
       </c>
-      <c r="I51" s="66" t="s">
+      <c r="I51" s="89" t="s">
         <v>90</v>
       </c>
       <c r="J51" s="22"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="39.6">
+    <row r="52" spans="1:11" ht="38.25">
       <c r="A52" s="12"/>
-      <c r="B52" s="84" t="s">
+      <c r="B52" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="73" t="s">
+      <c r="D52" s="65" t="s">
         <v>93</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="76">
+      <c r="F52" s="68">
         <v>45106</v>
       </c>
-      <c r="G52" s="76">
+      <c r="G52" s="68">
         <v>45106</v>
       </c>
       <c r="H52" s="21">
         <v>0</v>
       </c>
-      <c r="I52" s="68"/>
+      <c r="I52" s="90"/>
       <c r="J52" s="22"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="26.4">
+    <row r="53" spans="1:11" ht="25.5">
       <c r="A53" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="87"/>
-      <c r="D53" s="88"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="80"/>
       <c r="E53" s="31"/>
-      <c r="F53" s="89">
+      <c r="F53" s="81">
         <v>45079</v>
       </c>
-      <c r="G53" s="89">
+      <c r="G53" s="81">
         <v>45107</v>
       </c>
       <c r="H53" s="32"/>
-      <c r="I53" s="68"/>
+      <c r="I53" s="90"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="33"/>
@@ -8216,7 +8217,7 @@
     <mergeCell ref="I33:I35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId2"/>
@@ -8224,7 +8225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -8234,12 +8235,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1"/>
@@ -8248,10 +8249,10 @@
       <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="96"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="B4" s="42" t="s">
@@ -8268,7 +8269,7 @@
       <c r="B5" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="82" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8279,7 +8280,7 @@
       <c r="B6" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="82" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8290,7 +8291,7 @@
       <c r="B7" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="82" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8323,7 +8324,7 @@
       <c r="B10" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="82" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9361,7 +9362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9369,9 +9370,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>

--- a/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
+++ b/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\CodeMentorSolutions\Desarrollo\SGDC\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNMSM_Cursos\fisi_8vo_ciclo\Gest_conf_mantto\HernandezLivia\CodeMentorSolutions\Desarrollo\SGDC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D25AD9-EE85-472A-8F5E-E0D78978E364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma #1" sheetId="1" r:id="rId1"/>
@@ -527,7 +526,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -1703,26 +1702,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
+    <col min="3" max="3" width="44.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
@@ -1829,7 +1828,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
+    <row r="9" spans="1:11" ht="31.2">
       <c r="A9" s="12"/>
       <c r="B9" s="52" t="s">
         <v>9</v>
@@ -1854,7 +1853,7 @@
       </c>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:11" ht="38.25">
+    <row r="10" spans="1:11" ht="39.6">
       <c r="A10" s="12"/>
       <c r="B10" s="55" t="s">
         <v>16</v>
@@ -1880,7 +1879,7 @@
       <c r="I10" s="58"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="38.25">
+    <row r="11" spans="1:11" ht="39.6">
       <c r="A11" s="12"/>
       <c r="B11" s="55" t="s">
         <v>19</v>
@@ -1908,7 +1907,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25">
+    <row r="12" spans="1:11" ht="39.6">
       <c r="A12" s="12"/>
       <c r="B12" s="55" t="s">
         <v>21</v>
@@ -1937,7 +1936,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="38.25">
+    <row r="13" spans="1:11" ht="39.6">
       <c r="A13" s="12"/>
       <c r="B13" s="55" t="s">
         <v>24</v>
@@ -2016,7 +2015,7 @@
       <c r="J15" s="22"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+    <row r="16" spans="1:11" ht="13.2">
       <c r="A16" s="12"/>
       <c r="B16" s="55" t="s">
         <v>150</v>
@@ -2043,7 +2042,7 @@
       <c r="J16" s="22"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+    <row r="17" spans="1:11" ht="13.2">
       <c r="A17" s="12"/>
       <c r="B17" s="55" t="s">
         <v>149</v>
@@ -2070,7 +2069,7 @@
       <c r="J17" s="22"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+    <row r="18" spans="1:11" ht="26.4">
       <c r="A18" s="12"/>
       <c r="B18" s="55" t="s">
         <v>34</v>
@@ -2097,7 +2096,7 @@
       <c r="J18" s="22"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+    <row r="19" spans="1:11" ht="26.4">
       <c r="A19" s="12"/>
       <c r="B19" s="55" t="s">
         <v>34</v>
@@ -2126,7 +2125,7 @@
       <c r="J19" s="22"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+    <row r="20" spans="1:11" ht="26.4">
       <c r="A20" s="12"/>
       <c r="B20" s="55" t="s">
         <v>34</v>
@@ -2153,7 +2152,7 @@
       <c r="J20" s="22"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+    <row r="21" spans="1:11" ht="26.4">
       <c r="A21" s="12"/>
       <c r="B21" s="55" t="s">
         <v>34</v>
@@ -2180,7 +2179,7 @@
       <c r="J21" s="22"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+    <row r="22" spans="1:11" ht="26.4">
       <c r="A22" s="12"/>
       <c r="B22" s="55" t="s">
         <v>34</v>
@@ -2207,7 +2206,7 @@
       <c r="J22" s="22"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+    <row r="23" spans="1:11" ht="26.4">
       <c r="A23" s="12"/>
       <c r="B23" s="55" t="s">
         <v>34</v>
@@ -2234,7 +2233,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+    <row r="24" spans="1:11" ht="26.4">
       <c r="A24" s="12"/>
       <c r="B24" s="55" t="s">
         <v>34</v>
@@ -2261,7 +2260,7 @@
       <c r="J24" s="22"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+    <row r="25" spans="1:11" ht="26.4">
       <c r="A25" s="12"/>
       <c r="B25" s="55" t="s">
         <v>34</v>
@@ -2288,7 +2287,7 @@
       <c r="J25" s="22"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+    <row r="26" spans="1:11" ht="26.4">
       <c r="A26" s="12"/>
       <c r="B26" s="55" t="s">
         <v>34</v>
@@ -2315,7 +2314,7 @@
       <c r="J26" s="22"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+    <row r="27" spans="1:11" ht="26.4">
       <c r="A27" s="12"/>
       <c r="B27" s="55" t="s">
         <v>60</v>
@@ -2425,7 +2424,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="12.75">
+    <row r="31" spans="1:11" ht="13.2">
       <c r="A31" s="12"/>
       <c r="B31" s="55" t="s">
         <v>73</v>
@@ -2452,7 +2451,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="12.75">
+    <row r="32" spans="1:11" ht="13.2">
       <c r="A32" s="12"/>
       <c r="B32" s="55" t="s">
         <v>75</v>
@@ -2479,7 +2478,7 @@
       <c r="J32" s="22"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="38.25">
+    <row r="33" spans="1:11" ht="39.6">
       <c r="A33" s="12"/>
       <c r="B33" s="55" t="s">
         <v>136</v>
@@ -2506,7 +2505,7 @@
       <c r="J33" s="22"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="38.25">
+    <row r="34" spans="1:11" ht="39.6">
       <c r="A34" s="12"/>
       <c r="B34" s="55" t="s">
         <v>137</v>
@@ -2533,7 +2532,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="25.5">
+    <row r="35" spans="1:11" ht="26.4">
       <c r="A35" s="12" t="s">
         <v>76</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>45070</v>
       </c>
       <c r="H37" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="90"/>
       <c r="J37" s="22"/>
@@ -2633,7 +2632,7 @@
       <c r="J38" s="22"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="25.5">
+    <row r="39" spans="1:11" ht="26.4">
       <c r="A39" s="12"/>
       <c r="B39" s="55" t="s">
         <v>79</v>
@@ -2687,7 +2686,7 @@
       <c r="J40" s="22"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="14.25">
+    <row r="41" spans="1:11" ht="13.8">
       <c r="A41" s="12"/>
       <c r="B41" s="72" t="s">
         <v>124</v>
@@ -2714,7 +2713,7 @@
       <c r="J41" s="22"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="14.25">
+    <row r="42" spans="1:11" ht="13.8">
       <c r="A42" s="12"/>
       <c r="B42" s="55" t="s">
         <v>81</v>
@@ -2741,7 +2740,7 @@
       <c r="J42" s="22"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="38.25">
+    <row r="43" spans="1:11" ht="39.6">
       <c r="A43" s="12"/>
       <c r="B43" s="55" t="s">
         <v>138</v>
@@ -2770,7 +2769,7 @@
       <c r="J43" s="22"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="38.25">
+    <row r="44" spans="1:11" ht="39.6">
       <c r="A44" s="12"/>
       <c r="B44" s="55" t="s">
         <v>139</v>
@@ -2797,7 +2796,7 @@
       <c r="J44" s="22"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="25.5">
+    <row r="45" spans="1:11" ht="26.4">
       <c r="A45" s="12" t="s">
         <v>83</v>
       </c>
@@ -2843,7 +2842,7 @@
       <c r="J46" s="22"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="25.5">
+    <row r="47" spans="1:11" ht="26.4">
       <c r="A47" s="12"/>
       <c r="B47" s="55" t="s">
         <v>88</v>
@@ -2870,7 +2869,7 @@
       <c r="J47" s="22"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="14.25">
+    <row r="48" spans="1:11" ht="13.8">
       <c r="A48" s="12"/>
       <c r="B48" s="55" t="s">
         <v>89</v>
@@ -2897,7 +2896,7 @@
       <c r="J48" s="22"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" ht="14.25">
+    <row r="49" spans="1:11" ht="13.8">
       <c r="A49" s="12"/>
       <c r="B49" s="75" t="s">
         <v>85</v>
@@ -2924,7 +2923,7 @@
       <c r="J49" s="22"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="38.25">
+    <row r="50" spans="1:11" ht="39.6">
       <c r="A50" s="12"/>
       <c r="B50" s="55" t="s">
         <v>140</v>
@@ -2951,7 +2950,7 @@
       <c r="J50" s="22"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="38.25">
+    <row r="51" spans="1:11" ht="39.6">
       <c r="A51" s="12"/>
       <c r="B51" s="55" t="s">
         <v>141</v>
@@ -2980,7 +2979,7 @@
       <c r="J51" s="22"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="38.25">
+    <row r="52" spans="1:11" ht="39.6">
       <c r="A52" s="12"/>
       <c r="B52" s="76" t="s">
         <v>91</v>
@@ -3007,7 +3006,7 @@
       <c r="J52" s="22"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="25.5">
+    <row r="53" spans="1:11" ht="26.4">
       <c r="A53" s="12" t="s">
         <v>94</v>
       </c>
@@ -8217,7 +8216,7 @@
     <mergeCell ref="I33:I35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId2"/>
@@ -8225,7 +8224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -8235,12 +8234,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1"/>
@@ -9362,7 +9361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9370,9 +9369,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>

--- a/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
+++ b/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
@@ -1655,8 +1655,8 @@
   </sheetPr>
   <dimension ref="A1:K1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2279,7 +2279,7 @@
         <v>45033</v>
       </c>
       <c r="G27" s="54">
-        <v>45042</v>
+        <v>45036</v>
       </c>
       <c r="H27" s="21">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>45033</v>
       </c>
       <c r="G28" s="54">
-        <v>45042</v>
+        <v>45036</v>
       </c>
       <c r="H28" s="21">
         <v>1</v>
@@ -2333,7 +2333,7 @@
         <v>45033</v>
       </c>
       <c r="G29" s="54">
-        <v>45042</v>
+        <v>45036</v>
       </c>
       <c r="H29" s="21">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         <v>45052</v>
       </c>
       <c r="G37" s="67">
-        <v>45070</v>
+        <v>45072</v>
       </c>
       <c r="H37" s="26">
         <v>1</v>

--- a/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
+++ b/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNMSM_Cursos\fisi_8vo_ciclo\Gest_conf_mantto\HernandezLivia\CodeMentorSolutions\Desarrollo\SGDC\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fisi_UNMSM\fisi_8vo_ciclo\Gest_conf_mantto\HernandezLivia\CodeMentorSolutions\Desarrollo\SGDC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1655,17 +1655,17 @@
   </sheetPr>
   <dimension ref="A1:K1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="41.21875" customWidth="1"/>
-    <col min="3" max="3" width="44.21875" customWidth="1"/>
+    <col min="3" max="3" width="47.5546875" customWidth="1"/>
     <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="46.88671875" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
@@ -2336,7 +2336,7 @@
         <v>45036</v>
       </c>
       <c r="H29" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="87"/>
       <c r="J29" s="22"/>
@@ -2479,7 +2479,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="26.4">
+    <row r="35" spans="1:11" ht="52.8">
       <c r="A35" s="12" t="s">
         <v>76</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="J44" s="22"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="26.4">
+    <row r="45" spans="1:11" ht="52.8">
       <c r="A45" s="12" t="s">
         <v>83</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>45081</v>
       </c>
       <c r="H46" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="55"/>
       <c r="J46" s="22"/>
@@ -2810,7 +2810,7 @@
         <v>45103</v>
       </c>
       <c r="H47" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="55"/>
       <c r="J47" s="22"/>
@@ -2837,7 +2837,7 @@
         <v>45104</v>
       </c>
       <c r="H48" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="55"/>
       <c r="J48" s="22"/>
@@ -2864,7 +2864,7 @@
         <v>45104</v>
       </c>
       <c r="H49" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="55"/>
       <c r="J49" s="22"/>
@@ -2891,7 +2891,7 @@
         <v>45105</v>
       </c>
       <c r="H50" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="55"/>
       <c r="J50" s="22"/>
@@ -2915,10 +2915,10 @@
         <v>45105</v>
       </c>
       <c r="G51" s="65">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="H51" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="86" t="s">
         <v>90</v>
@@ -2941,10 +2941,10 @@
         <v>18</v>
       </c>
       <c r="F52" s="65">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="G52" s="65">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="H52" s="21">
         <v>0</v>
@@ -2953,7 +2953,7 @@
       <c r="J52" s="22"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="26.4">
+    <row r="53" spans="1:11" ht="52.8">
       <c r="A53" s="12" t="s">
         <v>94</v>
       </c>

--- a/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
+++ b/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
@@ -1655,8 +1655,8 @@
   </sheetPr>
   <dimension ref="A1:K1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2947,7 +2947,7 @@
         <v>45107</v>
       </c>
       <c r="H52" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="87"/>
       <c r="J52" s="22"/>

--- a/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
+++ b/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fisi_UNMSM\fisi_8vo_ciclo\Gest_conf_mantto\HernandezLivia\CodeMentorSolutions\Desarrollo\SGDC\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNMSM_Cursos\fisi_8vo_ciclo\Gest_conf_mantto\HernandezLivia\CodeMentorSolutions\Desarrollo\SGDC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1655,17 +1655,17 @@
   </sheetPr>
   <dimension ref="A1:K1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="41.21875" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.21875" customWidth="1"/>
     <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="46.88671875" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
@@ -2279,7 +2279,7 @@
         <v>45033</v>
       </c>
       <c r="G27" s="54">
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="H27" s="21">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>45033</v>
       </c>
       <c r="G28" s="54">
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="H28" s="21">
         <v>1</v>
@@ -2333,10 +2333,10 @@
         <v>45033</v>
       </c>
       <c r="G29" s="54">
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="H29" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="87"/>
       <c r="J29" s="22"/>
@@ -2479,7 +2479,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="52.8">
+    <row r="35" spans="1:11" ht="26.4">
       <c r="A35" s="12" t="s">
         <v>76</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>45052</v>
       </c>
       <c r="G37" s="67">
-        <v>45072</v>
+        <v>45070</v>
       </c>
       <c r="H37" s="26">
         <v>1</v>
@@ -2743,7 +2743,7 @@
       <c r="J44" s="22"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="52.8">
+    <row r="45" spans="1:11" ht="26.4">
       <c r="A45" s="12" t="s">
         <v>83</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>45081</v>
       </c>
       <c r="H46" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="55"/>
       <c r="J46" s="22"/>
@@ -2810,7 +2810,7 @@
         <v>45103</v>
       </c>
       <c r="H47" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="55"/>
       <c r="J47" s="22"/>
@@ -2837,7 +2837,7 @@
         <v>45104</v>
       </c>
       <c r="H48" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="55"/>
       <c r="J48" s="22"/>
@@ -2864,7 +2864,7 @@
         <v>45104</v>
       </c>
       <c r="H49" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="55"/>
       <c r="J49" s="22"/>
@@ -2891,7 +2891,7 @@
         <v>45105</v>
       </c>
       <c r="H50" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="55"/>
       <c r="J50" s="22"/>
@@ -2915,10 +2915,10 @@
         <v>45105</v>
       </c>
       <c r="G51" s="65">
-        <v>45106</v>
+        <v>45105</v>
       </c>
       <c r="H51" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="86" t="s">
         <v>90</v>
@@ -2941,19 +2941,19 @@
         <v>18</v>
       </c>
       <c r="F52" s="65">
-        <v>45107</v>
+        <v>45106</v>
       </c>
       <c r="G52" s="65">
-        <v>45107</v>
+        <v>45106</v>
       </c>
       <c r="H52" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="87"/>
       <c r="J52" s="22"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="52.8">
+    <row r="53" spans="1:11" ht="26.4">
       <c r="A53" s="12" t="s">
         <v>94</v>
       </c>

--- a/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
+++ b/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
@@ -1655,8 +1655,8 @@
   </sheetPr>
   <dimension ref="A1:K1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2279,7 +2279,7 @@
         <v>45033</v>
       </c>
       <c r="G27" s="54">
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="H27" s="21">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>45033</v>
       </c>
       <c r="G28" s="54">
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="H28" s="21">
         <v>1</v>
@@ -2333,7 +2333,7 @@
         <v>45033</v>
       </c>
       <c r="G29" s="54">
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="H29" s="21">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         <v>45052</v>
       </c>
       <c r="G37" s="67">
-        <v>45072</v>
+        <v>45070</v>
       </c>
       <c r="H37" s="26">
         <v>1</v>

--- a/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
+++ b/Desarrollo/SGDC/Documentos/SGDC_CP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNMSM_Cursos\fisi_8vo_ciclo\Gest_conf_mantto\HernandezLivia\CodeMentorSolutions\Desarrollo\SGDC\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fisi_UNMSM\fisi_8vo_ciclo\Gest_conf_mantto\HernandezLivia\CodeMentorSolutions\Desarrollo\SGDC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1656,7 +1656,7 @@
   <dimension ref="A1:K1008"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="H47" sqref="H47:H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2783,7 +2783,7 @@
         <v>45081</v>
       </c>
       <c r="H46" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="55"/>
       <c r="J46" s="22"/>
@@ -2810,7 +2810,7 @@
         <v>45103</v>
       </c>
       <c r="H47" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="55"/>
       <c r="J47" s="22"/>
@@ -2837,7 +2837,7 @@
         <v>45104</v>
       </c>
       <c r="H48" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="55"/>
       <c r="J48" s="22"/>
@@ -2864,7 +2864,7 @@
         <v>45104</v>
       </c>
       <c r="H49" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="55"/>
       <c r="J49" s="22"/>
@@ -2891,7 +2891,7 @@
         <v>45105</v>
       </c>
       <c r="H50" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="55"/>
       <c r="J50" s="22"/>
@@ -2918,7 +2918,7 @@
         <v>45105</v>
       </c>
       <c r="H51" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="86" t="s">
         <v>90</v>
@@ -2947,7 +2947,7 @@
         <v>45106</v>
       </c>
       <c r="H52" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="87"/>
       <c r="J52" s="22"/>
